--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadUpdatedVIN_CA_CHOICE.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadUpdatedVIN_CA_CHOICE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t>VIN</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>STAT</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -541,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,14 +576,15 @@
     <col min="23" max="23" width="22.21875" customWidth="1"/>
     <col min="24" max="24" width="20.88671875" customWidth="1"/>
     <col min="25" max="25" width="34.77734375" customWidth="1"/>
-    <col min="26" max="26" width="14.88671875" customWidth="1"/>
-    <col min="27" max="27" width="16.21875" customWidth="1"/>
-    <col min="29" max="29" width="14.6640625" customWidth="1"/>
-    <col min="35" max="35" width="17.21875" customWidth="1"/>
-    <col min="36" max="36" width="21.6640625" customWidth="1"/>
+    <col min="26" max="26" width="8" customWidth="1"/>
+    <col min="27" max="27" width="14.88671875" customWidth="1"/>
+    <col min="28" max="28" width="16.21875" customWidth="1"/>
+    <col min="30" max="30" width="14.6640625" customWidth="1"/>
+    <col min="36" max="36" width="17.21875" customWidth="1"/>
+    <col min="37" max="37" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,40 +661,43 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -755,17 +765,17 @@
       <c r="Y2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="4">
-        <v>11</v>
+      <c r="Z2" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="AA2" s="4">
         <v>11</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="4">
+        <v>11</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="AD2" s="4" t="s">
         <v>32</v>
@@ -776,20 +786,23 @@
       <c r="AF2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2">
         <v>20000101</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="AJ2" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="AK2" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -861,17 +874,17 @@
       <c r="Y3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" s="4">
         <v>12</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AB3" s="4">
         <v>13</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="AD3" s="4" t="s">
         <v>32</v>
@@ -882,20 +895,23 @@
       <c r="AF3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH3">
         <v>20000101</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>56</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>30</v>
       </c>
       <c r="AJ3" t="s">
         <v>30</v>
       </c>
+      <c r="AK3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="G4" s="4"/>
@@ -920,6 +936,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadUpdatedVIN_CA_CHOICE.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadUpdatedVIN_CA_CHOICE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>VIN</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>CHOICE_TIER</t>
   </si>
 </sst>
 </file>
@@ -547,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK4"/>
+  <dimension ref="A1:AL4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AJ10" sqref="AJ10"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AL7" sqref="AL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,13 +581,13 @@
     <col min="25" max="25" width="34.77734375" customWidth="1"/>
     <col min="26" max="26" width="8" customWidth="1"/>
     <col min="27" max="27" width="14.88671875" customWidth="1"/>
-    <col min="28" max="28" width="16.21875" customWidth="1"/>
-    <col min="30" max="30" width="14.6640625" customWidth="1"/>
-    <col min="36" max="36" width="17.21875" customWidth="1"/>
-    <col min="37" max="37" width="21.6640625" customWidth="1"/>
+    <col min="28" max="29" width="16.21875" customWidth="1"/>
+    <col min="31" max="31" width="14.6640625" customWidth="1"/>
+    <col min="37" max="37" width="17.21875" customWidth="1"/>
+    <col min="38" max="38" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,34 +673,37 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -766,7 +772,7 @@
         <v>47</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="AA2" s="4">
         <v>11</v>
@@ -775,10 +781,10 @@
         <v>11</v>
       </c>
       <c r="AC2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="AE2" s="4" t="s">
         <v>32</v>
@@ -789,20 +795,23 @@
       <c r="AG2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI2">
         <v>20000101</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="AK2" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="AL2" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -884,10 +893,10 @@
         <v>13</v>
       </c>
       <c r="AC3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD3" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="AE3" s="4" t="s">
         <v>32</v>
@@ -898,20 +907,23 @@
       <c r="AG3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI3">
         <v>20000101</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>56</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>30</v>
       </c>
       <c r="AK3" t="s">
         <v>30</v>
       </c>
+      <c r="AL3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="G4" s="4"/>
@@ -937,6 +949,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadUpdatedVIN_CA_CHOICE.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadUpdatedVIN_CA_CHOICE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu1xkaz\IdeaProjects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadUpdatedVIN_CA_CHOICE.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadUpdatedVIN_CA_CHOICE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu1xkaz\IdeaProjects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
   <si>
     <t>VIN</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>CHOICE_TIER</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -550,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL4"/>
+  <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AL7" sqref="AL7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,19 +902,19 @@
         <v>30</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AI3">
-        <v>20000101</v>
+        <v>20150101</v>
       </c>
       <c r="AJ3" t="s">
         <v>56</v>
@@ -922,34 +925,6 @@
       <c r="AL3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
